--- a/OpsAndMats/Model33M.xlsx
+++ b/OpsAndMats/Model33M.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="237">
   <si>
     <t>Item</t>
   </si>
@@ -161,7 +161,7 @@
     <t>8029125-1</t>
   </si>
   <si>
-    <t>8027958</t>
+    <t>M33M</t>
   </si>
   <si>
     <t>WATER FILTER MTG. BRACKET MOD. 33</t>
@@ -1083,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AQ66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1901,10 +1901,10 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1984,10 +1984,10 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2067,7 +2067,7 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -2150,10 +2150,10 @@
         <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -2233,10 +2233,10 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2316,10 +2316,10 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2334,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s">
         <v>176</v>
@@ -2399,10 +2399,10 @@
         <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2417,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s">
         <v>176</v>
@@ -2482,10 +2482,10 @@
         <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s">
         <v>176</v>
@@ -2565,10 +2565,10 @@
         <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2583,7 +2583,7 @@
         <v>8</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
         <v>176</v>
@@ -2648,10 +2648,10 @@
         <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2731,10 +2731,10 @@
         <v>61</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2814,10 +2814,10 @@
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21">
         <v>12</v>
@@ -2897,10 +2897,10 @@
         <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -2915,7 +2915,7 @@
         <v>8</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s">
         <v>176</v>
@@ -2980,10 +2980,10 @@
         <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23">
         <v>14</v>
@@ -2998,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
         <v>176</v>
@@ -3063,10 +3063,10 @@
         <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>15</v>
@@ -3146,10 +3146,10 @@
         <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K25">
         <v>16</v>
@@ -3164,13 +3164,13 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="T25" t="s">
         <v>176</v>
       </c>
       <c r="U25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>17</v>
@@ -3312,10 +3312,10 @@
         <v>61</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>18</v>
@@ -3330,13 +3330,13 @@
         <v>8</v>
       </c>
       <c r="S27">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
         <v>176</v>
       </c>
       <c r="U27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>19</v>
@@ -3478,10 +3478,10 @@
         <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29">
         <v>20</v>
@@ -3561,10 +3561,10 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K30">
         <v>21</v>
@@ -3644,10 +3644,10 @@
         <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K31">
         <v>22</v>
@@ -3727,10 +3727,10 @@
         <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K32">
         <v>23</v>
@@ -3810,10 +3810,10 @@
         <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K33">
         <v>24</v>
@@ -3893,10 +3893,10 @@
         <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>25</v>
@@ -3976,10 +3976,10 @@
         <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -4059,10 +4059,10 @@
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>27</v>
@@ -4142,10 +4142,10 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37">
         <v>28</v>
@@ -4225,10 +4225,10 @@
         <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K38">
         <v>29</v>
@@ -4308,10 +4308,10 @@
         <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K39">
         <v>30</v>
@@ -4391,10 +4391,10 @@
         <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40">
         <v>31</v>
@@ -4474,10 +4474,10 @@
         <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -4492,13 +4492,13 @@
         <v>8</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
         <v>176</v>
       </c>
       <c r="U41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4557,10 +4557,10 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K42">
         <v>33</v>
@@ -4575,13 +4575,13 @@
         <v>8</v>
       </c>
       <c r="S42">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s">
         <v>176</v>
       </c>
       <c r="U42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4640,10 +4640,10 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K43">
         <v>34</v>
@@ -4723,10 +4723,10 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K44">
         <v>35</v>
@@ -4806,10 +4806,10 @@
         <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K45">
         <v>36</v>
@@ -4824,7 +4824,7 @@
         <v>8</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s">
         <v>176</v>
@@ -4889,10 +4889,10 @@
         <v>61</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K46">
         <v>37</v>
@@ -4907,7 +4907,7 @@
         <v>8</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s">
         <v>176</v>
@@ -4972,10 +4972,10 @@
         <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47">
         <v>38</v>
@@ -4990,7 +4990,7 @@
         <v>8</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" t="s">
         <v>176</v>
@@ -5055,10 +5055,10 @@
         <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48">
         <v>39</v>
@@ -5138,10 +5138,10 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K49">
         <v>40</v>
@@ -5156,7 +5156,7 @@
         <v>8</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T49" t="s">
         <v>176</v>
@@ -5221,10 +5221,10 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K50">
         <v>41</v>
@@ -5239,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="S50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s">
         <v>176</v>
@@ -5304,10 +5304,10 @@
         <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K51">
         <v>42</v>
@@ -5322,7 +5322,7 @@
         <v>8</v>
       </c>
       <c r="S51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s">
         <v>176</v>
@@ -5387,10 +5387,10 @@
         <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>43</v>
@@ -5405,7 +5405,7 @@
         <v>8</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T52" t="s">
         <v>176</v>
@@ -5470,10 +5470,10 @@
         <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K53">
         <v>44</v>
@@ -5553,10 +5553,10 @@
         <v>61</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>45</v>
@@ -5571,7 +5571,7 @@
         <v>8</v>
       </c>
       <c r="S54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s">
         <v>176</v>
@@ -5636,10 +5636,10 @@
         <v>61</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>46</v>
@@ -5719,10 +5719,10 @@
         <v>61</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>47</v>
@@ -5802,10 +5802,10 @@
         <v>61</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K57">
         <v>48</v>
@@ -5885,10 +5885,10 @@
         <v>61</v>
       </c>
       <c r="I58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K58">
         <v>49</v>
@@ -5903,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s">
         <v>176</v>
@@ -5968,10 +5968,10 @@
         <v>61</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K59">
         <v>50</v>
@@ -5986,7 +5986,7 @@
         <v>8</v>
       </c>
       <c r="S59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T59" t="s">
         <v>176</v>
@@ -6051,10 +6051,10 @@
         <v>61</v>
       </c>
       <c r="I60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K60">
         <v>51</v>
@@ -6069,7 +6069,7 @@
         <v>8</v>
       </c>
       <c r="S60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s">
         <v>176</v>
@@ -6134,10 +6134,10 @@
         <v>61</v>
       </c>
       <c r="I61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K61">
         <v>52</v>
@@ -6217,10 +6217,10 @@
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K62">
         <v>53</v>
@@ -6300,10 +6300,10 @@
         <v>61</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K63">
         <v>54</v>
@@ -6383,10 +6383,10 @@
         <v>61</v>
       </c>
       <c r="I64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K64">
         <v>55</v>
@@ -6466,10 +6466,10 @@
         <v>61</v>
       </c>
       <c r="I65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K65">
         <v>56</v>
@@ -6549,10 +6549,10 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K66">
         <v>57</v>
@@ -6612,89 +6612,6 @@
         <v>0</v>
       </c>
       <c r="AQ66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:43">
-      <c r="A67" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>57</v>
-      </c>
-      <c r="H67" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" t="s">
-        <v>118</v>
-      </c>
-      <c r="J67" t="s">
-        <v>175</v>
-      </c>
-      <c r="K67">
-        <v>58</v>
-      </c>
-      <c r="L67">
-        <v>58</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>8</v>
-      </c>
-      <c r="S67">
-        <v>4</v>
-      </c>
-      <c r="T67" t="s">
-        <v>176</v>
-      </c>
-      <c r="U67" t="s">
-        <v>179</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>1</v>
-      </c>
-      <c r="AF67">
-        <v>1</v>
-      </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AK67">
-        <v>0</v>
-      </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
-      <c r="AM67">
-        <v>0</v>
-      </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
-      <c r="AO67">
-        <v>0</v>
-      </c>
-      <c r="AP67">
-        <v>0</v>
-      </c>
-      <c r="AQ67">
         <v>0</v>
       </c>
     </row>

--- a/OpsAndMats/Model33M.xlsx
+++ b/OpsAndMats/Model33M.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="223">
   <si>
     <t>Item</t>
   </si>
@@ -218,33 +218,9 @@
     <t>5460403</t>
   </si>
   <si>
-    <t>5145601</t>
-  </si>
-  <si>
-    <t>5062601</t>
-  </si>
-  <si>
-    <t>5145603</t>
-  </si>
-  <si>
-    <t>5261607</t>
-  </si>
-  <si>
-    <t>5102601-1</t>
-  </si>
-  <si>
-    <t>5462603</t>
-  </si>
-  <si>
-    <t>5262605</t>
-  </si>
-  <si>
     <t>5144422</t>
   </si>
   <si>
-    <t>5102501</t>
-  </si>
-  <si>
     <t>5144421</t>
   </si>
   <si>
@@ -287,39 +263,21 @@
     <t>6583031</t>
   </si>
   <si>
-    <t>5320007</t>
-  </si>
-  <si>
     <t>5130401</t>
   </si>
   <si>
-    <t>5131003</t>
-  </si>
-  <si>
-    <t>5180603</t>
-  </si>
-  <si>
     <t>5106501</t>
   </si>
   <si>
     <t>5033602</t>
   </si>
   <si>
-    <t>5144427</t>
-  </si>
-  <si>
     <t>5144622</t>
   </si>
   <si>
     <t>5144621</t>
   </si>
   <si>
-    <t>5112601</t>
-  </si>
-  <si>
-    <t>5262601</t>
-  </si>
-  <si>
     <t>2547401</t>
   </si>
   <si>
@@ -329,12 +287,6 @@
     <t>7352034</t>
   </si>
   <si>
-    <t>5141001</t>
-  </si>
-  <si>
-    <t>5141003</t>
-  </si>
-  <si>
     <t>2231706</t>
   </si>
   <si>
@@ -359,19 +311,46 @@
     <t>2032801</t>
   </si>
   <si>
-    <t>2402410</t>
-  </si>
-  <si>
-    <t>2517301</t>
-  </si>
-  <si>
-    <t>2507301</t>
-  </si>
-  <si>
-    <t>2577301</t>
-  </si>
-  <si>
-    <t>2002401</t>
+    <t>5102401</t>
+  </si>
+  <si>
+    <t>5320010</t>
+  </si>
+  <si>
+    <t>5262501</t>
+  </si>
+  <si>
+    <t>1527301</t>
+  </si>
+  <si>
+    <t>1577301</t>
+  </si>
+  <si>
+    <t>1402008</t>
+  </si>
+  <si>
+    <t>1507201</t>
+  </si>
+  <si>
+    <t>1577201</t>
+  </si>
+  <si>
+    <t>1032001</t>
+  </si>
+  <si>
+    <t>1402408</t>
+  </si>
+  <si>
+    <t>2507201</t>
+  </si>
+  <si>
+    <t>2577201</t>
+  </si>
+  <si>
+    <t>2032001</t>
+  </si>
+  <si>
+    <t>2402414</t>
   </si>
   <si>
     <t>4 x 3 x 1/4" HRS Angle</t>
@@ -389,33 +368,9 @@
     <t>gate valve, brass, 1/2" FPT to 1/2" FPT</t>
   </si>
   <si>
-    <t>1"MPT x 1" barbed hose, PVC</t>
-  </si>
-  <si>
-    <t>brass cross, 1"</t>
-  </si>
-  <si>
-    <t>1"MPT x 1"hose insert, (barbed) PVC, 90°</t>
-  </si>
-  <si>
-    <t>1" x 4" St. steel nipple</t>
-  </si>
-  <si>
-    <t>1" FPT 90° St. steel elbow</t>
-  </si>
-  <si>
-    <t>ball valve, 1"FPT, bronze</t>
-  </si>
-  <si>
-    <t>1"NPT x 3"lg., brass nipple</t>
-  </si>
-  <si>
     <t>90°, 1/2"PTC tube x 1/2 MPT</t>
   </si>
   <si>
-    <t>elbow, 90°, brass, FPT x FPT, 3/4"</t>
-  </si>
-  <si>
     <t>male conn., 1/2" tube x 1/2 MPT,PTC</t>
   </si>
   <si>
@@ -458,39 +413,21 @@
     <t>gauge, 0-30 psi, 2"dial, 1/4"center bac…</t>
   </si>
   <si>
-    <t>pump, 1/3 HP, T.E.F.C., 115/230V, 50/60…</t>
-  </si>
-  <si>
     <t>Filter housing, 1/2" FPT, 10" element</t>
   </si>
   <si>
-    <t>filter element, (20 micron)</t>
-  </si>
-  <si>
-    <t>1"ID x #2 BRD black, rubber hose</t>
-  </si>
-  <si>
     <t>street elbow, brass, 90°, 3/4"</t>
   </si>
   <si>
     <t>bushing, 1"MPT x, 3/4"FPT, Sch.40 PVC</t>
   </si>
   <si>
-    <t>Male conn. 1/2" tube x 3/4 MPT,PTC</t>
-  </si>
-  <si>
     <t>90°, 3/4PTC tube x 3/4 MPT</t>
   </si>
   <si>
     <t>male conn. 3/4 tube x 3/4 MPT,PTC</t>
   </si>
   <si>
-    <t>Brass elbow, 1" FPT, 45°</t>
-  </si>
-  <si>
-    <t>1"NPT brass nipple, close type</t>
-  </si>
-  <si>
     <t>Washer, Fender, 3/8, Pl. Stl.</t>
   </si>
   <si>
@@ -500,12 +437,6 @@
     <t>cable tie mount, nylon (#10 hole)</t>
   </si>
   <si>
-    <t>hose clamp, st.stl. (3/8"-5/8"ID hose)</t>
-  </si>
-  <si>
-    <t>hose clamp, st.stl., (3/4"-1"ID), slot</t>
-  </si>
-  <si>
     <t>M.Scr, Bnd Hd., 10-32, 3/4, Pl. Stl.</t>
   </si>
   <si>
@@ -527,22 +458,49 @@
     <t>Washer, Split Lock, Med, 3/8, Pl. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, 3/8-16, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>HHCS, 5/16-18, 1 1/4, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, SAE, 5/16, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Standard, 5/16, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, 5/16, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>Hex Nut, 5/16-18, Pl. Stl.</t>
+    <t>Hex Nut, full, 3/8-16, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>elbow, 90°, FPT x FPT, brass, 1/2"</t>
+  </si>
+  <si>
+    <t>Pump, Water, 1/8 HP, TEFC, 115/230V</t>
+  </si>
+  <si>
+    <t>brass nipple, 3/4"MPT, close type</t>
+  </si>
+  <si>
+    <t>Washer, AN, 5/16, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, 5/16, St. Stl.</t>
+  </si>
+  <si>
+    <t>HHCS, ¼-20, 1, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Standard, ¼, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, ¼, St. Stl.</t>
+  </si>
+  <si>
+    <t>Hex Nut, full, ¼-20, St. Stl.</t>
+  </si>
+  <si>
+    <t>HHCS, 5/16-18, 1, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Standard, ¼, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, ¼, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>Hex Nut, full, ¼-20, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>HHCS, 5/16-18, 1 3/4, Pl. Stl.</t>
   </si>
   <si>
     <t>Unit</t>
@@ -1083,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ66"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1198,7 @@
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1258,10 +1216,10 @@
         <v>2.1875</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1323,7 +1281,7 @@
         <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1341,10 +1299,10 @@
         <v>0.0313</v>
       </c>
       <c r="T3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1406,7 +1364,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1424,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1489,7 +1447,7 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1507,10 +1465,10 @@
         <v>0.0313</v>
       </c>
       <c r="T5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1572,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1590,10 +1548,10 @@
         <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1655,7 +1613,7 @@
         <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1673,10 +1631,10 @@
         <v>0.0313</v>
       </c>
       <c r="T7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1738,7 +1696,7 @@
         <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1756,10 +1714,10 @@
         <v>2.25</v>
       </c>
       <c r="T8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1821,7 +1779,7 @@
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1839,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U9" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1922,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U10" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2005,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2088,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U12" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2171,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2254,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U14" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2319,7 +2277,7 @@
         <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2334,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2402,7 +2360,7 @@
         <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2417,13 +2375,13 @@
         <v>8</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2485,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2500,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="T17" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2568,7 +2526,7 @@
         <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2583,13 +2541,13 @@
         <v>8</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="T18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U18" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2651,7 +2609,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2669,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U19" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2734,7 +2692,7 @@
         <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2752,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2817,7 +2775,7 @@
         <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K21">
         <v>12</v>
@@ -2835,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U21" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2900,7 +2858,7 @@
         <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -2915,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U22" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2983,7 +2941,7 @@
         <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K23">
         <v>14</v>
@@ -3001,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3066,7 +3024,7 @@
         <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K24">
         <v>15</v>
@@ -3084,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U24" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3149,7 +3107,7 @@
         <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K25">
         <v>16</v>
@@ -3164,13 +3122,13 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U25" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3232,7 +3190,7 @@
         <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K26">
         <v>17</v>
@@ -3247,13 +3205,13 @@
         <v>8</v>
       </c>
       <c r="S26">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U26" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3315,7 +3273,7 @@
         <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K27">
         <v>18</v>
@@ -3333,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U27" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3398,7 +3356,7 @@
         <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K28">
         <v>19</v>
@@ -3416,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U28" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3481,7 +3439,7 @@
         <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K29">
         <v>20</v>
@@ -3499,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U29" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3564,7 +3522,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K30">
         <v>21</v>
@@ -3582,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U30" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3647,7 +3605,7 @@
         <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K31">
         <v>22</v>
@@ -3665,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U31" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3730,7 +3688,7 @@
         <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K32">
         <v>23</v>
@@ -3748,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U32" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3813,7 +3771,7 @@
         <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K33">
         <v>24</v>
@@ -3828,13 +3786,13 @@
         <v>8</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U33" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3896,7 +3854,7 @@
         <v>86</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K34">
         <v>25</v>
@@ -3911,13 +3869,13 @@
         <v>8</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U34" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3979,7 +3937,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -3994,13 +3952,13 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U35" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4062,7 +4020,7 @@
         <v>88</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K36">
         <v>27</v>
@@ -4077,13 +4035,13 @@
         <v>8</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U36" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4145,7 +4103,7 @@
         <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K37">
         <v>28</v>
@@ -4163,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4228,7 +4186,7 @@
         <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K38">
         <v>29</v>
@@ -4243,13 +4201,13 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U38" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4311,7 +4269,7 @@
         <v>91</v>
       </c>
       <c r="J39" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K39">
         <v>30</v>
@@ -4326,13 +4284,13 @@
         <v>8</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T39" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U39" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4394,7 +4352,7 @@
         <v>92</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K40">
         <v>31</v>
@@ -4409,13 +4367,13 @@
         <v>8</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U40" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4477,7 +4435,7 @@
         <v>93</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -4492,13 +4450,13 @@
         <v>8</v>
       </c>
       <c r="S41">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U41" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4560,7 +4518,7 @@
         <v>94</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K42">
         <v>33</v>
@@ -4575,13 +4533,13 @@
         <v>8</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U42" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4643,7 +4601,7 @@
         <v>95</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K43">
         <v>34</v>
@@ -4658,13 +4616,13 @@
         <v>8</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T43" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U43" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4726,7 +4684,7 @@
         <v>96</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K44">
         <v>35</v>
@@ -4741,13 +4699,13 @@
         <v>8</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U44" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4809,7 +4767,7 @@
         <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K45">
         <v>36</v>
@@ -4824,13 +4782,13 @@
         <v>8</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4892,7 +4850,7 @@
         <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K46">
         <v>37</v>
@@ -4907,13 +4865,13 @@
         <v>8</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U46" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4975,7 +4933,7 @@
         <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K47">
         <v>38</v>
@@ -4993,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U47" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5058,7 +5016,7 @@
         <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K48">
         <v>39</v>
@@ -5076,10 +5034,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U48" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5141,7 +5099,7 @@
         <v>101</v>
       </c>
       <c r="J49" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K49">
         <v>40</v>
@@ -5156,13 +5114,13 @@
         <v>8</v>
       </c>
       <c r="S49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T49" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U49" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5224,7 +5182,7 @@
         <v>102</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K50">
         <v>41</v>
@@ -5239,13 +5197,13 @@
         <v>8</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U50" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5307,7 +5265,7 @@
         <v>103</v>
       </c>
       <c r="J51" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K51">
         <v>42</v>
@@ -5322,13 +5280,13 @@
         <v>8</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U51" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5390,7 +5348,7 @@
         <v>104</v>
       </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K52">
         <v>43</v>
@@ -5405,13 +5363,13 @@
         <v>8</v>
       </c>
       <c r="S52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U52" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5473,7 +5431,7 @@
         <v>105</v>
       </c>
       <c r="J53" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K53">
         <v>44</v>
@@ -5488,13 +5446,13 @@
         <v>8</v>
       </c>
       <c r="S53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U53" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5556,7 +5514,7 @@
         <v>106</v>
       </c>
       <c r="J54" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K54">
         <v>45</v>
@@ -5571,13 +5529,13 @@
         <v>8</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U54" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5639,7 +5597,7 @@
         <v>107</v>
       </c>
       <c r="J55" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K55">
         <v>46</v>
@@ -5654,13 +5612,13 @@
         <v>8</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U55" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5722,7 +5680,7 @@
         <v>108</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K56">
         <v>47</v>
@@ -5737,13 +5695,13 @@
         <v>8</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T56" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U56" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5805,7 +5763,7 @@
         <v>109</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K57">
         <v>48</v>
@@ -5820,13 +5778,13 @@
         <v>8</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U57" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5888,7 +5846,7 @@
         <v>110</v>
       </c>
       <c r="J58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K58">
         <v>49</v>
@@ -5906,10 +5864,10 @@
         <v>4</v>
       </c>
       <c r="T58" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U58" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5971,7 +5929,7 @@
         <v>111</v>
       </c>
       <c r="J59" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K59">
         <v>50</v>
@@ -5986,13 +5944,13 @@
         <v>8</v>
       </c>
       <c r="S59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U59" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -6031,587 +5989,6 @@
         <v>0</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:43">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" t="s">
-        <v>112</v>
-      </c>
-      <c r="J60" t="s">
-        <v>169</v>
-      </c>
-      <c r="K60">
-        <v>51</v>
-      </c>
-      <c r="L60">
-        <v>51</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="R60" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60">
-        <v>4</v>
-      </c>
-      <c r="T60" t="s">
-        <v>176</v>
-      </c>
-      <c r="U60" t="s">
-        <v>179</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
-      <c r="AM60">
-        <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>0</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
-      </c>
-      <c r="AP60">
-        <v>0</v>
-      </c>
-      <c r="AQ60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43">
-      <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" t="s">
-        <v>113</v>
-      </c>
-      <c r="J61" t="s">
-        <v>170</v>
-      </c>
-      <c r="K61">
-        <v>52</v>
-      </c>
-      <c r="L61">
-        <v>52</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
-        <v>8</v>
-      </c>
-      <c r="S61">
-        <v>4</v>
-      </c>
-      <c r="T61" t="s">
-        <v>176</v>
-      </c>
-      <c r="U61" t="s">
-        <v>179</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>1</v>
-      </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:43">
-      <c r="A62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I62" t="s">
-        <v>114</v>
-      </c>
-      <c r="J62" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62">
-        <v>53</v>
-      </c>
-      <c r="L62">
-        <v>53</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62">
-        <v>4</v>
-      </c>
-      <c r="T62" t="s">
-        <v>176</v>
-      </c>
-      <c r="U62" t="s">
-        <v>179</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>0</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
-      </c>
-      <c r="AP62">
-        <v>0</v>
-      </c>
-      <c r="AQ62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:43">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" t="s">
-        <v>115</v>
-      </c>
-      <c r="J63" t="s">
-        <v>172</v>
-      </c>
-      <c r="K63">
-        <v>54</v>
-      </c>
-      <c r="L63">
-        <v>54</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>8</v>
-      </c>
-      <c r="S63">
-        <v>4</v>
-      </c>
-      <c r="T63" t="s">
-        <v>176</v>
-      </c>
-      <c r="U63" t="s">
-        <v>179</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>1</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63">
-        <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:43">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" t="s">
-        <v>61</v>
-      </c>
-      <c r="I64" t="s">
-        <v>116</v>
-      </c>
-      <c r="J64" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64">
-        <v>55</v>
-      </c>
-      <c r="L64">
-        <v>55</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="R64" t="s">
-        <v>8</v>
-      </c>
-      <c r="S64">
-        <v>4</v>
-      </c>
-      <c r="T64" t="s">
-        <v>176</v>
-      </c>
-      <c r="U64" t="s">
-        <v>179</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:43">
-      <c r="A65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" t="s">
-        <v>61</v>
-      </c>
-      <c r="I65" t="s">
-        <v>117</v>
-      </c>
-      <c r="J65" t="s">
-        <v>174</v>
-      </c>
-      <c r="K65">
-        <v>56</v>
-      </c>
-      <c r="L65">
-        <v>56</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>8</v>
-      </c>
-      <c r="S65">
-        <v>4</v>
-      </c>
-      <c r="T65" t="s">
-        <v>176</v>
-      </c>
-      <c r="U65" t="s">
-        <v>179</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
-      </c>
-      <c r="AQ65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:43">
-      <c r="A66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" t="s">
-        <v>61</v>
-      </c>
-      <c r="I66" t="s">
-        <v>118</v>
-      </c>
-      <c r="J66" t="s">
-        <v>175</v>
-      </c>
-      <c r="K66">
-        <v>57</v>
-      </c>
-      <c r="L66">
-        <v>57</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66">
-        <v>4</v>
-      </c>
-      <c r="T66" t="s">
-        <v>176</v>
-      </c>
-      <c r="U66" t="s">
-        <v>179</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AK66">
-        <v>0</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>0</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <v>0</v>
-      </c>
-      <c r="AP66">
-        <v>0</v>
-      </c>
-      <c r="AQ66">
         <v>0</v>
       </c>
     </row>
@@ -6654,61 +6031,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -6717,64 +6094,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -6797,19 +6174,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -6842,28 +6219,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -6898,28 +6275,28 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -6952,28 +6329,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -7008,28 +6385,28 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -7062,28 +6439,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -7118,28 +6495,28 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -7172,28 +6549,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN5" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -7237,19 +6614,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -7282,28 +6659,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG6" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -7338,28 +6715,28 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -7392,28 +6769,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -7457,19 +6834,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -7502,28 +6879,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG8" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN8" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -7567,19 +6944,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -7612,28 +6989,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG9" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN9" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -7668,28 +7045,28 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -7722,28 +7099,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG10" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN10" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -7778,28 +7155,28 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -7832,28 +7209,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG11" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK11" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN11" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7888,28 +7265,28 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -7942,28 +7319,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG12" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK12" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -7998,28 +7375,28 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -8052,28 +7429,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -8117,19 +7494,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -8162,28 +7539,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG14" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK14" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN14" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -8227,19 +7604,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -8272,28 +7649,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK15" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN15" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8328,28 +7705,28 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -8382,28 +7759,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG16" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK16" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN16" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8438,28 +7815,28 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -8492,28 +7869,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK17" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8548,28 +7925,28 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -8602,28 +7979,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -8658,28 +8035,28 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -8712,28 +8089,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK19" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -8777,19 +8154,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -8822,28 +8199,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -8887,19 +8264,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -8932,28 +8309,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK21" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -8997,19 +8374,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -9042,28 +8419,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -9098,28 +8475,28 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H23" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -9152,28 +8529,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -9217,19 +8594,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -9262,28 +8639,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK24" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9327,19 +8704,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -9372,28 +8749,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AK25" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO25">
         <v>0</v>
